--- a/My_readings.xlsx
+++ b/My_readings.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -100,7 +100,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$-41F]dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="[$-41F]dd\/mm\/yy"/>
     <numFmt numFmtId="166" formatCode="[$-41F]hh:mm"/>
     <numFmt numFmtId="167" formatCode="[$-1009]General"/>
   </numFmts>
@@ -109,6 +109,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -307,20 +308,20 @@
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="13.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="13.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="12.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="17.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="24.17"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="3" width="11.52"/>
@@ -362,6 +363,12 @@
       <c r="A2" s="1" t="n">
         <v>43954</v>
       </c>
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
@@ -388,6 +395,12 @@
       <c r="A3" s="1" t="n">
         <v>43899</v>
       </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
@@ -414,6 +427,12 @@
       <c r="A4" s="1" t="n">
         <v>43901</v>
       </c>
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
@@ -440,6 +459,12 @@
       <c r="A5" s="1" t="n">
         <v>43901</v>
       </c>
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
@@ -466,6 +491,12 @@
       <c r="A6" s="1" t="n">
         <v>43912</v>
       </c>
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
@@ -492,6 +523,12 @@
       <c r="A7" s="1" t="n">
         <v>43917</v>
       </c>
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>13</v>
       </c>
@@ -518,6 +555,12 @@
       <c r="A8" s="1" t="n">
         <v>43921</v>
       </c>
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
@@ -544,6 +587,12 @@
       <c r="A9" s="1" t="n">
         <v>43933</v>
       </c>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>13</v>
       </c>
@@ -570,6 +619,12 @@
       <c r="A10" s="1" t="n">
         <v>43969</v>
       </c>
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
@@ -596,6 +651,12 @@
       <c r="A11" s="1" t="n">
         <v>43969</v>
       </c>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
@@ -622,6 +683,12 @@
       <c r="A12" s="1" t="n">
         <v>43971</v>
       </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
@@ -648,6 +715,12 @@
       <c r="A13" s="1" t="n">
         <v>43971</v>
       </c>
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
@@ -674,6 +747,12 @@
       <c r="A14" s="1" t="n">
         <v>43975</v>
       </c>
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
@@ -700,6 +779,12 @@
       <c r="A15" s="1" t="n">
         <v>43975</v>
       </c>
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
@@ -726,6 +811,12 @@
       <c r="A16" s="1" t="n">
         <v>43976</v>
       </c>
+      <c r="B16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
@@ -752,6 +843,12 @@
       <c r="A17" s="1" t="n">
         <v>43976</v>
       </c>
+      <c r="B17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>16</v>
       </c>
@@ -778,6 +875,12 @@
       <c r="A18" s="1" t="n">
         <v>43977</v>
       </c>
+      <c r="B18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
       </c>
@@ -804,6 +907,12 @@
       <c r="A19" s="1" t="n">
         <v>43977</v>
       </c>
+      <c r="B19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>16</v>
       </c>
@@ -830,6 +939,12 @@
       <c r="A20" s="1" t="n">
         <v>43986</v>
       </c>
+      <c r="B20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D20" s="3" t="s">
         <v>16</v>
       </c>
@@ -838,9 +953,6 @@
       </c>
       <c r="F20" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="G20" s="3" t="n">
-        <v>57</v>
       </c>
       <c r="J20" s="4" t="n">
         <v>1</v>
@@ -850,6 +962,12 @@
       <c r="A21" s="1" t="n">
         <v>43987</v>
       </c>
+      <c r="B21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D21" s="3" t="s">
         <v>16</v>
       </c>
@@ -867,6 +985,12 @@
       <c r="A22" s="1" t="n">
         <v>43988</v>
       </c>
+      <c r="B22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D22" s="3" t="s">
         <v>16</v>
       </c>
@@ -875,9 +999,6 @@
       </c>
       <c r="F22" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H22" s="3" t="n">
-        <v>154</v>
       </c>
       <c r="J22" s="4" t="n">
         <v>1</v>
@@ -887,6 +1008,12 @@
       <c r="A23" s="1" t="n">
         <v>43990</v>
       </c>
+      <c r="B23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
@@ -913,6 +1040,12 @@
       <c r="A24" s="1" t="n">
         <v>43990</v>
       </c>
+      <c r="B24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D24" s="3" t="s">
         <v>19</v>
       </c>
@@ -939,6 +1072,12 @@
       <c r="A25" s="1" t="n">
         <v>43991</v>
       </c>
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D25" s="3" t="s">
         <v>19</v>
       </c>
@@ -965,6 +1104,12 @@
       <c r="A26" s="1" t="n">
         <v>43993</v>
       </c>
+      <c r="B26" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="D26" s="3" t="s">
         <v>19</v>
       </c>
@@ -990,6 +1135,12 @@
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>43994</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>0</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>19</v>
